--- a/intensivao-python-lira/Produtos Novo.xlsx
+++ b/intensivao-python-lira/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8964</v>
+        <v>0.8948199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>896.391036</v>
+        <v>894.8110518</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1254.9474504</v>
+        <v>1252.73547252</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.11556</v>
+        <v>1.117545</v>
       </c>
       <c r="E3" t="n">
-        <v>5020.02</v>
+        <v>5028.9525</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>10040.04</v>
+        <v>10057.905</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8964</v>
+        <v>0.8948199999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>806.751036</v>
+        <v>805.3290518</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1371.4767612</v>
+        <v>1369.05938806</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8964</v>
+        <v>0.8948199999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>716.2236</v>
+        <v>714.96118</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1217.58012</v>
+        <v>1215.434006</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.11556</v>
+        <v>1.117545</v>
       </c>
       <c r="E6" t="n">
-        <v>3346.68</v>
+        <v>3352.635</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6358.691999999999</v>
+        <v>6370.0065</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8964</v>
+        <v>0.8948199999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>430.702272</v>
+        <v>429.9431136</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>861.404544</v>
+        <v>859.8862272</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>308.99</v>
+        <v>308.71</v>
       </c>
       <c r="E8" t="n">
-        <v>6179.8</v>
+        <v>6174.2</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7106.77</v>
+        <v>7100.329999999999</v>
       </c>
     </row>
   </sheetData>

--- a/intensivao-python-lira/Produtos Novo.xlsx
+++ b/intensivao-python-lira/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8948199999999999</v>
+        <v>5.37</v>
       </c>
       <c r="E2" t="n">
-        <v>894.8110518</v>
+        <v>5369.946300000001</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1252.73547252</v>
+        <v>7517.92482</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.117545</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5028.9525</v>
+        <v>27000</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>10057.905</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8948199999999999</v>
+        <v>5.37</v>
       </c>
       <c r="E4" t="n">
-        <v>805.3290518</v>
+        <v>4832.946300000001</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1369.05938806</v>
+        <v>8216.00871</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8948199999999999</v>
+        <v>5.37</v>
       </c>
       <c r="E5" t="n">
-        <v>714.96118</v>
+        <v>4290.63</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1215.434006</v>
+        <v>7294.071</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.117545</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>3352.635</v>
+        <v>18000</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6370.0065</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8948199999999999</v>
+        <v>5.37</v>
       </c>
       <c r="E7" t="n">
-        <v>429.9431136</v>
+        <v>2580.1776</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>859.8862272</v>
+        <v>5160.3552</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>308.71</v>
+        <v>309.12</v>
       </c>
       <c r="E8" t="n">
-        <v>6174.2</v>
+        <v>6182.4</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7100.329999999999</v>
+        <v>7109.759999999999</v>
       </c>
     </row>
   </sheetData>

--- a/intensivao-python-lira/Produtos Novo.xlsx
+++ b/intensivao-python-lira/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="E2" t="n">
-        <v>5369.946300000001</v>
+        <v>5359.946400000001</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7517.92482</v>
+        <v>7503.92496</v>
       </c>
     </row>
     <row r="3">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="E4" t="n">
-        <v>4832.946300000001</v>
+        <v>4823.946400000001</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>8216.00871</v>
+        <v>8200.70888</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="E5" t="n">
-        <v>4290.63</v>
+        <v>4282.64</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7294.071</v>
+        <v>7280.488</v>
       </c>
     </row>
     <row r="6">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="E7" t="n">
-        <v>2580.1776</v>
+        <v>2575.3728</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>5160.3552</v>
+        <v>5150.7456</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>309.12</v>
+        <v>309.66</v>
       </c>
       <c r="E8" t="n">
-        <v>6182.4</v>
+        <v>6193.200000000001</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7109.759999999999</v>
+        <v>7122.18</v>
       </c>
     </row>
   </sheetData>

--- a/intensivao-python-lira/Produtos Novo.xlsx
+++ b/intensivao-python-lira/Produtos Novo.xlsx
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>309.66</v>
+        <v>309.45</v>
       </c>
       <c r="E8" t="n">
-        <v>6193.200000000001</v>
+        <v>6189</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7122.18</v>
+        <v>7117.349999999999</v>
       </c>
     </row>
   </sheetData>

--- a/intensivao-python-lira/Produtos Novo.xlsx
+++ b/intensivao-python-lira/Produtos Novo.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="E2" t="n">
-        <v>5359.946400000001</v>
+        <v>5299.947</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7503.92496</v>
+        <v>7419.9258</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="E3" t="n">
-        <v>27000</v>
+        <v>26820</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>54000</v>
+        <v>53640</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4823.946400000001</v>
+        <v>4769.947</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>8200.70888</v>
+        <v>8108.9099</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="E5" t="n">
-        <v>4282.64</v>
+        <v>4234.7</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7280.488</v>
+        <v>7198.99</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="E6" t="n">
-        <v>18000</v>
+        <v>17880</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>34200</v>
+        <v>33972</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="E7" t="n">
-        <v>2575.3728</v>
+        <v>2546.544</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>5150.7456</v>
+        <v>5093.088</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>309.45</v>
+        <v>306.5</v>
       </c>
       <c r="E8" t="n">
-        <v>6189</v>
+        <v>6130</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7117.349999999999</v>
+        <v>7049.499999999999</v>
       </c>
     </row>
   </sheetData>
